--- a/Impudenter circumivi; Virtutibus laudabilis; Alma redemptoris.xlsx
+++ b/Impudenter circumivi; Virtutibus laudabilis; Alma redemptoris.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,11 +398,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>quod</t>
+          <t>solus</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -524,47 +524,47 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>amo</t>
+          <t>termino</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>amor</t>
+          <t>amo</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mercede</t>
+          <t>amor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>quis</t>
+          <t>certamen</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>non</t>
+          <t>longus</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -574,27 +574,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>verum</t>
+          <t>quis</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>gratia</t>
+          <t>non</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>potens</t>
+          <t>gratia</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -604,7 +604,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dulcis</t>
+          <t>mundo</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -614,7 +614,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>amat</t>
+          <t>dulcis</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -624,7 +624,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>amans</t>
+          <t>gratus</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -634,49 +634,49 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>maria</t>
+          <t>Total Average</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1</v>
+        <v>0.6296296296296297</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Total Average</t>
+          <t>Total Sum</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8095238095238095</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Total Sum</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Motetus Sentiment Words</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sentiment Value</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Motetus Sentiment Words</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Sentiment Value</t>
-        </is>
+          <t>mos</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>potentia</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -686,27 +686,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>terribilis</t>
+          <t>potentia</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>mirabilis</t>
+          <t>terribilis</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nobilis</t>
+          <t>ars</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -716,7 +716,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>utilis</t>
+          <t>mirabilis</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -726,7 +726,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>quod</t>
+          <t>nobilis</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -736,41 +736,51 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Total Average</t>
+          <t>utilis</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Total Average</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Total Sum</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sentiment Difference</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>13</v>
+      <c r="B27" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Sentiment Difference</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>Sentiment Average Difference</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>0.1428571428571429</v>
+      <c r="B30" t="n">
+        <v>0.1203703703703703</v>
       </c>
     </row>
   </sheetData>
